--- a/20260209 product 時間計測/2025上期_個人目標-スキルチェック.xlsx
+++ b/20260209 product 時間計測/2025上期_個人目標-スキルチェック.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyama\Desktop\スキルチェック\skillcheck\20260209 product 時間計測\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svr88\Desktop\スキルチェック\skillcheck\20260209 product 時間計測\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A576507-577D-4175-A11A-9D21104C0AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55D4633-0C28-49EF-8D72-DCCF70190183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="2" r:id="rId1"/>
@@ -2004,23 +2004,77 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2040,77 +2094,23 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8885,17 +8885,17 @@
       <selection activeCell="B32" sqref="B32:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.06640625" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="16384" width="3.08984375" style="1"/>
+    <col min="1" max="16384" width="3.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
+    <row r="1" spans="1:5" ht="22.9">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20">
+    <row r="3" spans="1:5" ht="19.899999999999999">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -8961,12 +8961,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20">
+    <row r="13" spans="1:5" ht="19.899999999999999">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20">
+    <row r="14" spans="1:5" ht="19.899999999999999">
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -8975,22 +8975,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20">
+    <row r="15" spans="1:5" ht="19.899999999999999">
       <c r="B15" s="4"/>
       <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20">
+    <row r="16" spans="1:5" ht="19.899999999999999">
       <c r="B16" s="4"/>
       <c r="D16" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20">
+    <row r="17" spans="2:6" ht="19.899999999999999">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="20">
+    <row r="18" spans="2:6" ht="19.899999999999999">
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -8999,19 +8999,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20">
+    <row r="19" spans="2:6" ht="19.899999999999999">
       <c r="B19" s="4"/>
       <c r="D19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20">
+    <row r="20" spans="2:6" ht="19.899999999999999">
       <c r="B20" s="4"/>
       <c r="D20" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20">
+    <row r="21" spans="2:6" ht="19.899999999999999">
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="2:6">
@@ -9027,7 +9027,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="20">
+    <row r="25" spans="2:6" ht="19.899999999999999">
       <c r="B25" s="4" t="s">
         <v>2</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="20">
+    <row r="32" spans="2:6" ht="19.899999999999999">
       <c r="B32" s="4" t="s">
         <v>79</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="20">
+    <row r="35" spans="2:4" ht="19.899999999999999">
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
@@ -9149,7 +9149,7 @@
     <col min="1" max="16384" width="3" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="22.5">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="22.9">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -9165,76 +9165,76 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="18" customHeight="1">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="19"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="49"/>
     </row>
     <row r="6" spans="1:44" ht="18" customHeight="1">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="19"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="49"/>
     </row>
     <row r="7" spans="1:44" ht="18" customHeight="1">
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="19"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="49"/>
     </row>
     <row r="9" spans="1:44" ht="18" customHeight="1">
       <c r="B9" s="8" t="s">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="X10" s="9"/>
     </row>
-    <row r="11" spans="1:44" s="1" customFormat="1">
+    <row r="11" spans="1:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C11" s="8" t="s">
         <v>122</v>
       </c>
@@ -9256,166 +9256,166 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:44" s="1" customFormat="1" ht="18.5" thickBot="1">
+    <row r="12" spans="1:44" s="1" customFormat="1" thickBot="1">
       <c r="C12" s="8"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="20" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="20" t="s">
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="20" t="s">
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="21"/>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="21"/>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="21"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="21"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="21"/>
-      <c r="AP12" s="21"/>
-      <c r="AQ12" s="21"/>
-      <c r="AR12" s="22"/>
-    </row>
-    <row r="13" spans="1:44" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
+      <c r="AM12" s="39"/>
+      <c r="AN12" s="39"/>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="40"/>
+    </row>
+    <row r="13" spans="1:44" s="1" customFormat="1" thickTop="1">
       <c r="C13" s="8"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="23" t="s">
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="23" t="s">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="25"/>
-    </row>
-    <row r="14" spans="1:44" s="1" customFormat="1">
-      <c r="D14" s="26" t="s">
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="42"/>
+      <c r="AR13" s="43"/>
+    </row>
+    <row r="14" spans="1:44" s="1" customFormat="1" ht="17.649999999999999">
+      <c r="D14" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="26" t="s">
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="28"/>
-    </row>
-    <row r="15" spans="1:44" s="1" customFormat="1"/>
-    <row r="16" spans="1:44" s="1" customFormat="1">
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="37"/>
+    </row>
+    <row r="15" spans="1:44" s="1" customFormat="1" ht="17.649999999999999"/>
+    <row r="16" spans="1:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C16" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:44" s="1" customFormat="1">
+    <row r="17" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C17" s="8" t="s">
         <v>122</v>
       </c>
@@ -9461,371 +9461,371 @@
       <c r="AQ17" s="8"/>
       <c r="AR17" s="8"/>
     </row>
-    <row r="18" spans="3:44" s="1" customFormat="1" ht="18.5" thickBot="1">
+    <row r="18" spans="3:44" s="1" customFormat="1" thickBot="1">
       <c r="C18" s="8"/>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="20" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="20" t="s">
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="20" t="s">
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AC18" s="21"/>
-      <c r="AD18" s="21"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="21"/>
-      <c r="AO18" s="21"/>
-      <c r="AP18" s="21"/>
-      <c r="AQ18" s="21"/>
-      <c r="AR18" s="22"/>
-    </row>
-    <row r="19" spans="3:44" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="40"/>
+    </row>
+    <row r="19" spans="3:44" s="1" customFormat="1" thickTop="1">
       <c r="C19" s="8"/>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="23" t="s">
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="23" t="s">
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="25"/>
-    </row>
-    <row r="20" spans="3:44" s="1" customFormat="1">
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="43"/>
+    </row>
+    <row r="20" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C20" s="8"/>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="26" t="s">
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="26" t="s">
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="28"/>
-    </row>
-    <row r="21" spans="3:44" s="1" customFormat="1">
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="37"/>
+    </row>
+    <row r="21" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C21" s="8"/>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="29" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="32" t="s">
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="34"/>
-    </row>
-    <row r="22" spans="3:44" s="1" customFormat="1">
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="25"/>
+    </row>
+    <row r="22" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C22" s="8"/>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="29" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="32" t="s">
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="34"/>
-    </row>
-    <row r="23" spans="3:44" s="1" customFormat="1">
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="25"/>
+    </row>
+    <row r="23" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C23" s="8"/>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="29" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="29" t="s">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="32" t="s">
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="34"/>
-    </row>
-    <row r="24" spans="3:44" s="1" customFormat="1">
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="25"/>
+    </row>
+    <row r="24" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C24" s="8"/>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="29" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="32" t="s">
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="34"/>
-    </row>
-    <row r="25" spans="3:44" s="1" customFormat="1"/>
-    <row r="26" spans="3:44" s="1" customFormat="1">
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+      <c r="AI24" s="24"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="24"/>
+      <c r="AL24" s="24"/>
+      <c r="AM24" s="24"/>
+      <c r="AN24" s="24"/>
+      <c r="AO24" s="24"/>
+      <c r="AP24" s="24"/>
+      <c r="AQ24" s="24"/>
+      <c r="AR24" s="25"/>
+    </row>
+    <row r="25" spans="3:44" s="1" customFormat="1" ht="17.649999999999999"/>
+    <row r="26" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="3:44" s="1" customFormat="1">
+    <row r="27" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C27" s="8" t="s">
         <v>122</v>
       </c>
@@ -9833,166 +9833,166 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="3:44" s="1" customFormat="1" ht="18.5" thickBot="1">
+    <row r="28" spans="3:44" s="1" customFormat="1" thickBot="1">
       <c r="C28" s="8"/>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="20" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="20" t="s">
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="20" t="s">
+      <c r="S28" s="39"/>
+      <c r="T28" s="39"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="21"/>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="21"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="21"/>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="22"/>
-    </row>
-    <row r="29" spans="3:44" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
+      <c r="AM28" s="39"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="39"/>
+      <c r="AP28" s="39"/>
+      <c r="AQ28" s="39"/>
+      <c r="AR28" s="40"/>
+    </row>
+    <row r="29" spans="3:44" s="1" customFormat="1" thickTop="1">
       <c r="C29" s="8"/>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="35" t="s">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="35" t="s">
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="35" t="s">
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AK29" s="36"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="36"/>
-      <c r="AO29" s="36"/>
-      <c r="AP29" s="36"/>
-      <c r="AQ29" s="36"/>
-      <c r="AR29" s="37"/>
-    </row>
-    <row r="30" spans="3:44" s="1" customFormat="1">
-      <c r="D30" s="26" t="s">
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="33"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="34"/>
+    </row>
+    <row r="30" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
+      <c r="D30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="26" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="26" t="s">
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="28"/>
-    </row>
-    <row r="31" spans="3:44" s="1" customFormat="1"/>
-    <row r="32" spans="3:44" s="1" customFormat="1">
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="36"/>
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="37"/>
+    </row>
+    <row r="31" spans="3:44" s="1" customFormat="1" ht="17.649999999999999"/>
+    <row r="32" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C32" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="3:44" s="1" customFormat="1">
+    <row r="33" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C33" s="8" t="s">
         <v>122</v>
       </c>
@@ -10039,417 +10039,495 @@
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
     </row>
-    <row r="34" spans="3:44" s="1" customFormat="1" ht="18.5" thickBot="1">
+    <row r="34" spans="3:44" s="1" customFormat="1" thickBot="1">
       <c r="C34" s="8"/>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="20" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="20" t="s">
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="20" t="s">
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="21"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="21"/>
-      <c r="AO34" s="21"/>
-      <c r="AP34" s="21"/>
-      <c r="AQ34" s="21"/>
-      <c r="AR34" s="22"/>
-    </row>
-    <row r="35" spans="3:44" s="1" customFormat="1" ht="18.5" thickTop="1">
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="40"/>
+    </row>
+    <row r="35" spans="3:44" s="1" customFormat="1" thickTop="1">
       <c r="C35" s="8"/>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="35" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="35" t="s">
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="35" t="s">
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AK35" s="36"/>
-      <c r="AL35" s="36"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="37"/>
-    </row>
-    <row r="36" spans="3:44" s="1" customFormat="1">
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="34"/>
+    </row>
+    <row r="36" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C36" s="8"/>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="26" t="s">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="26" t="s">
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="26" t="s">
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="27"/>
-      <c r="AP36" s="27"/>
-      <c r="AQ36" s="27"/>
-      <c r="AR36" s="28"/>
-    </row>
-    <row r="37" spans="3:44" s="1" customFormat="1">
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+      <c r="AM36" s="36"/>
+      <c r="AN36" s="36"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="37"/>
+    </row>
+    <row r="37" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C37" s="8"/>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="29" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="41" t="s">
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
-      <c r="AJ37" s="42"/>
-      <c r="AK37" s="42"/>
-      <c r="AL37" s="42"/>
-      <c r="AM37" s="42"/>
-      <c r="AN37" s="42"/>
-      <c r="AO37" s="42"/>
-      <c r="AP37" s="42"/>
-      <c r="AQ37" s="42"/>
-      <c r="AR37" s="43"/>
-    </row>
-    <row r="38" spans="3:44" s="1" customFormat="1">
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="21"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="21"/>
+      <c r="AO37" s="21"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="21"/>
+      <c r="AR37" s="22"/>
+    </row>
+    <row r="38" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C38" s="8"/>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="29" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="29" t="s">
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="32" t="s">
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="33"/>
-      <c r="AH38" s="33"/>
-      <c r="AI38" s="33"/>
-      <c r="AJ38" s="33"/>
-      <c r="AK38" s="33"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="33"/>
-      <c r="AN38" s="33"/>
-      <c r="AO38" s="33"/>
-      <c r="AP38" s="33"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="34"/>
-    </row>
-    <row r="39" spans="3:44" s="1" customFormat="1">
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="24"/>
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="24"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="24"/>
+      <c r="AP38" s="24"/>
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="25"/>
+    </row>
+    <row r="39" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C39" s="8"/>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="29" t="s">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="39"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="39"/>
-      <c r="V39" s="39"/>
-      <c r="W39" s="39"/>
-      <c r="X39" s="39"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="41" t="s">
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="42"/>
-      <c r="AJ39" s="42"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="42"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="43"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="21"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="21"/>
+      <c r="AO39" s="21"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="21"/>
+      <c r="AR39" s="22"/>
     </row>
     <row r="40" spans="3:44" s="12" customFormat="1" ht="18" customHeight="1">
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="44" t="s">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="47" t="s">
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="41" t="s">
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="43"/>
-    </row>
-    <row r="41" spans="3:44" s="1" customFormat="1">
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="22"/>
+    </row>
+    <row r="41" spans="3:44" s="1" customFormat="1" ht="17.649999999999999">
       <c r="C41" s="8"/>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="29" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="32" t="s">
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="33"/>
-      <c r="AK41" s="33"/>
-      <c r="AL41" s="33"/>
-      <c r="AM41" s="33"/>
-      <c r="AN41" s="33"/>
-      <c r="AO41" s="33"/>
-      <c r="AP41" s="33"/>
-      <c r="AQ41" s="33"/>
-      <c r="AR41" s="34"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="24"/>
+      <c r="AH41" s="24"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J5:T5"/>
+    <mergeCell ref="J6:T6"/>
+    <mergeCell ref="J7:T7"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="R12:Y12"/>
+    <mergeCell ref="Z12:AR12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="R13:Y13"/>
+    <mergeCell ref="Z13:AR13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="Z14:AR14"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="R18:Y18"/>
+    <mergeCell ref="Z18:AR18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="R19:Y19"/>
+    <mergeCell ref="Z19:AR19"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="R20:Y20"/>
+    <mergeCell ref="Z20:AR20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="R21:Y21"/>
+    <mergeCell ref="Z21:AR21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="R22:Y22"/>
+    <mergeCell ref="Z22:AR22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="R23:Y23"/>
+    <mergeCell ref="Z23:AR23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="R24:Y24"/>
+    <mergeCell ref="Z24:AR24"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="R28:Y28"/>
+    <mergeCell ref="Z28:AR28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="R29:Y29"/>
+    <mergeCell ref="Z29:AR29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="R30:Y30"/>
+    <mergeCell ref="Z30:AR30"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:Y34"/>
+    <mergeCell ref="Z34:AR34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="R35:Y35"/>
+    <mergeCell ref="Z35:AR35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="R36:Y36"/>
+    <mergeCell ref="Z36:AR36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="R37:Y37"/>
+    <mergeCell ref="Z37:AR37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="R38:Y38"/>
+    <mergeCell ref="Z38:AR38"/>
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="K39:Q39"/>
     <mergeCell ref="R39:Y39"/>
@@ -10462,84 +10540,6 @@
     <mergeCell ref="K40:Q40"/>
     <mergeCell ref="R40:Y40"/>
     <mergeCell ref="Z40:AR40"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="R37:Y37"/>
-    <mergeCell ref="Z37:AR37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="R38:Y38"/>
-    <mergeCell ref="Z38:AR38"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="R35:Y35"/>
-    <mergeCell ref="Z35:AR35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="R36:Y36"/>
-    <mergeCell ref="Z36:AR36"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="R30:Y30"/>
-    <mergeCell ref="Z30:AR30"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="R34:Y34"/>
-    <mergeCell ref="Z34:AR34"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="R28:Y28"/>
-    <mergeCell ref="Z28:AR28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="R29:Y29"/>
-    <mergeCell ref="Z29:AR29"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="R23:Y23"/>
-    <mergeCell ref="Z23:AR23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="R24:Y24"/>
-    <mergeCell ref="Z24:AR24"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="R21:Y21"/>
-    <mergeCell ref="Z21:AR21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="R22:Y22"/>
-    <mergeCell ref="Z22:AR22"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="R19:Y19"/>
-    <mergeCell ref="Z19:AR19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="R20:Y20"/>
-    <mergeCell ref="Z20:AR20"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="Z14:AR14"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="R18:Y18"/>
-    <mergeCell ref="Z18:AR18"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="R12:Y12"/>
-    <mergeCell ref="Z12:AR12"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="R13:Y13"/>
-    <mergeCell ref="Z13:AR13"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J5:T5"/>
-    <mergeCell ref="J6:T6"/>
-    <mergeCell ref="J7:T7"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10558,8 +10558,8 @@
   </sheetPr>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO66" sqref="AO66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1"/>
@@ -10567,7 +10567,7 @@
     <col min="1" max="16384" width="3" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.5">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="22.9">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -10924,12 +10924,12 @@
   <sheetViews>
     <sheetView topLeftCell="A60" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.06640625" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="16384" width="3.08984375" style="1"/>
+    <col min="1" max="16384" width="3.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22.5">
+    <row r="1" spans="1:3" ht="22.9">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -11091,16 +11091,16 @@
   </sheetPr>
   <dimension ref="A1:AG207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Y5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.08984375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.06640625" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="16384" width="3.08984375" style="1"/>
+    <col min="1" max="16384" width="3.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22.5">
+    <row r="1" spans="1:33" ht="22.9">
       <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
